--- a/Laboratorio 19-05.xlsx
+++ b/Laboratorio 19-05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCBB-15\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F1947E-A249-4AE7-98A5-F9E03D079200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E877233-B202-4267-8F51-49E38ED12393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA9DCD10-C978-4501-9C08-E2FC39C229AF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">Para cada integral, obtenga una aproximacion aplicando las reglas del trapecio, simpson 1/3 y simpson 3/8 con n=12 </t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>n=18</t>
+  </si>
+  <si>
+    <t>Nota(Calculo hecho por excel)</t>
+  </si>
+  <si>
+    <t>Nota(Calculo hecho a mano en calculadora)</t>
   </si>
 </sst>
 </file>
@@ -1941,8 +1950,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56321</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>75371</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>89452</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708271" cy="378886"/>
@@ -1961,7 +1970,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4678017" y="4089952"/>
+              <a:off x="4694996" y="4661452"/>
               <a:ext cx="708271" cy="378886"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2103,7 +2112,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4678017" y="4089952"/>
+              <a:off x="4694996" y="4661452"/>
               <a:ext cx="708271" cy="378886"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2200,15 +2209,70 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>97734</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="438646" cy="475900"/>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CuadroTexto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8155CDF4-9DD6-4583-9A28-FD88675BE8F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5282647" y="5241234"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-NI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64604</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>188843</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="171009" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="CuadroTexto 11">
+            <xdr:cNvPr id="13" name="CuadroTexto 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8155CDF4-9DD6-4583-9A28-FD88675BE8F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87116C51-9725-4F02-AB4A-8DCE813B41B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2216,8 +2280,1010 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5282647" y="5241234"/>
-              <a:ext cx="438646" cy="475900"/>
+              <a:off x="3924300" y="6094343"/>
+              <a:ext cx="171009" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="CuadroTexto 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87116C51-9725-4F02-AB4A-8DCE813B41B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3924300" y="6094343"/>
+              <a:ext cx="171009" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89451</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180561</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="369781" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="CuadroTexto 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F26449-8B99-462F-87C2-E4555ACF1339}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4711147" y="6086061"/>
+              <a:ext cx="369781" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="CuadroTexto 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F26449-8B99-462F-87C2-E4555ACF1339}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4711147" y="6086061"/>
+              <a:ext cx="369781" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓〖(𝑥〗_0)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="217366" cy="240196"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="CuadroTexto 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9789DB-1FA7-44FE-AC4A-1E5069659E72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5698434" y="6071153"/>
+              <a:ext cx="217366" cy="240196"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>18</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="CuadroTexto 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9789DB-1FA7-44FE-AC4A-1E5069659E72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5698434" y="6071153"/>
+              <a:ext cx="217366" cy="240196"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>18</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>72886</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="426079" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="CuadroTexto 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EAF06B-8C15-459C-9000-07ADB63BA928}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6276560" y="6086060"/>
+              <a:ext cx="426079" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>18</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="CuadroTexto 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EAF06B-8C15-459C-9000-07ADB63BA928}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6276560" y="6086060"/>
+              <a:ext cx="426079" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>18)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139147</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>188843</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="151067" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="CuadroTexto 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFABAEE3-43DF-420A-B11C-389EECD75C4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1663147" y="6665843"/>
+              <a:ext cx="151067" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="CuadroTexto 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFABAEE3-43DF-420A-B11C-389EECD75C4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1663147" y="6665843"/>
+              <a:ext cx="151067" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>163995</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>188843</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="349839" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="CuadroTexto 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FF1CC0-23C2-43FB-971A-209E00017AD7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2449995" y="6665843"/>
+              <a:ext cx="349839" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="CuadroTexto 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FF1CC0-23C2-43FB-971A-209E00017AD7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2449995" y="6665843"/>
+              <a:ext cx="349839" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="708271" cy="378886"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="CuadroTexto 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBD581B-E948-417D-ACCE-E60D851D0CA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3857625" y="6967537"/>
+              <a:ext cx="708271" cy="378886"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2252,7 +3318,6 @@
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:nary>
                       <m:naryPr>
-                        <m:chr m:val="∑"/>
                         <m:ctrlPr>
                           <a:rPr lang="es-NI" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2267,13 +3332,7 @@
                           <a:rPr lang="es-ES" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>=1</m:t>
+                          <m:t>2</m:t>
                         </m:r>
                       </m:sub>
                       <m:sup>
@@ -2281,10 +3340,67 @@
                           <a:rPr lang="es-ES" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>12−1</m:t>
+                          <m:t>4</m:t>
                         </m:r>
                       </m:sup>
-                      <m:e/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-NI" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-NI" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑒</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                      </m:e>
                     </m:nary>
                   </m:oMath>
                 </m:oMathPara>
@@ -2297,10 +3413,10 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="CuadroTexto 11">
+            <xdr:cNvPr id="20" name="CuadroTexto 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8155CDF4-9DD6-4583-9A28-FD88675BE8F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBD581B-E948-417D-ACCE-E60D851D0CA7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2308,8 +3424,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5282647" y="5241234"/>
-              <a:ext cx="438646" cy="475900"/>
+              <a:off x="3857625" y="6967537"/>
+              <a:ext cx="708271" cy="378886"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2340,31 +3456,923 @@
                 <a:rPr lang="es-NI" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>∑24_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑖=1</a:t>
+                <a:t>∫24_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-NI" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>)^(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>12−1</a:t>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-NI" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>)</a:t>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥 𝑑𝑥=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="329642" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="CuadroTexto 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC31DA7-64BF-4248-AE9C-B46C1F40B148}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5105400" y="5329237"/>
+              <a:ext cx="329642" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="CuadroTexto 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC31DA7-64BF-4248-AE9C-B46C1F40B148}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5105400" y="5329237"/>
+              <a:ext cx="329642" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="708271" cy="378886"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="CuadroTexto 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F87621-6B97-4218-B5F2-55AF8D22D1AB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4705350" y="3900487"/>
+              <a:ext cx="708271" cy="378886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-NI" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-NI" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑒</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="CuadroTexto 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F87621-6B97-4218-B5F2-55AF8D22D1AB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4705350" y="3900487"/>
+              <a:ext cx="708271" cy="378886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∫24_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥 𝑑𝑥=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="708271" cy="378886"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="CuadroTexto 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F6F740-9B2F-444B-872F-6670A2958859}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3895725" y="7720012"/>
+              <a:ext cx="708271" cy="378886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-NI" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-NI" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑒</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="CuadroTexto 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F6F740-9B2F-444B-872F-6670A2958859}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3895725" y="7720012"/>
+              <a:ext cx="708271" cy="378886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∫24_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥 𝑑𝑥=</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="329642" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="CuadroTexto 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5AB0FA-36ED-4BDF-A964-3897E51EE211}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5000625" y="8624887"/>
+              <a:ext cx="329642" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="CuadroTexto 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5AB0FA-36ED-4BDF-A964-3897E51EE211}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5000625" y="8624887"/>
+              <a:ext cx="329642" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=</a:t>
               </a:r>
               <a:endParaRPr lang="es-NI" sz="1100"/>
             </a:p>
@@ -2674,16 +4682,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C80D222-0180-488C-963E-70711E8E7099}">
-  <dimension ref="B12:I30"/>
+  <dimension ref="B12:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -2787,6 +4796,12 @@
         <f t="shared" si="1"/>
         <v>5.3969685356812098</v>
       </c>
+      <c r="H22">
+        <v>14.646640100000001</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
@@ -2839,6 +4854,13 @@
         <f t="shared" si="1"/>
         <v>8.4094874683578382</v>
       </c>
+      <c r="H26">
+        <f>(E17/2)*(G17+2*D30+I17)</f>
+        <v>14.696054377089439</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
@@ -2877,6 +4899,10 @@
       <c r="D29">
         <f t="shared" si="1"/>
         <v>12.056435534580643</v>
+      </c>
+      <c r="H29">
+        <f>ABS(H22-H26)*100</f>
+        <v>4.941427708943813</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2885,8 +4911,280 @@
         <v>79.504293483660931</v>
       </c>
     </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f>(4-2)/18</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f>EXP(2)/2</f>
+        <v>3.6945280494653252</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <f>EXP(4)/4</f>
+        <v>13.649537508286059</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f>$F$34+B37*$E$34</f>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="D37">
+        <f>EXP(C37)/C37</f>
+        <v>3.9114052534223851</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C53" si="2">$F$34+B38*$E$34</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D53" si="3">EXP(C38)/C38</f>
+        <v>4.1525164584627863</v>
+      </c>
+      <c r="G38">
+        <f>(E34/2)*(G34+2*D54+I34)</f>
+        <v>14.685270348119126</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>4.4195393577110424</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>4.7144231660564744</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>5.03939440417839</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>5.3969685356812098</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>5.7899666419426605</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>6.2215366632213636</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>6.6951789743958896</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>7.2147762377938927</v>
+      </c>
+      <c r="H46">
+        <f>ABS(H22-G38)*100</f>
+        <v>3.8630248119124744</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>7.7846276078734489</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>8.4094874683578382</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>9.0946089718409304</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="3"/>
+        <v>9.8457927316335994</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="3"/>
+        <v>10.669441090405421</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>11.572618463365275</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="3"/>
+        <v>12.563118327853864</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f>SUM(D37:D53)</f>
+        <v>123.49540035419645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>